--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_18.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_18.xlsx
@@ -508,393 +508,393 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_9</t>
+          <t>model_1_18_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999435001879896</v>
+        <v>0.9503346488748753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8264297599281486</v>
+        <v>0.7478224444279344</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8170134150835012</v>
+        <v>0.7639371181212619</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9972612976506544</v>
+        <v>0.8988110154076734</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002351819758593485</v>
+        <v>0.1741024139212122</v>
       </c>
       <c r="G2" t="n">
-        <v>1.160664994577937</v>
+        <v>1.686312475281276</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6545324040745002</v>
+        <v>0.8443832407679083</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006624087030370863</v>
+        <v>0.1982864707198631</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1224090166616006</v>
+        <v>1.360730456104816</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0484955643187445</v>
+        <v>0.4172558135259617</v>
       </c>
       <c r="L2" t="n">
-        <v>1.036159879686657</v>
+        <v>0.9323705857019579</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04925932097898568</v>
+        <v>0.4238271754862065</v>
       </c>
       <c r="N2" t="n">
-        <v>142.1051317702666</v>
+        <v>37.49622313432435</v>
       </c>
       <c r="O2" t="n">
-        <v>283.440304313483</v>
+        <v>74.46080672255016</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_8</t>
+          <t>model_1_18_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999393274441389</v>
+        <v>0.9503716310442596</v>
       </c>
       <c r="C3" t="n">
-        <v>0.825689917536363</v>
+        <v>0.7472270738417823</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8168979165326831</v>
+        <v>0.7635011278452632</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9971629831786549</v>
+        <v>0.9057726174736096</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002525511335369023</v>
+        <v>0.1739727725350955</v>
       </c>
       <c r="G3" t="n">
-        <v>1.165612324058469</v>
+        <v>1.690293721132304</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6549455356937861</v>
+        <v>0.8459427527049864</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006861879800740885</v>
+        <v>0.1846447535925299</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1266279333655944</v>
+        <v>1.333430118085637</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05025446582512864</v>
+        <v>0.4171004345899144</v>
       </c>
       <c r="L3" t="n">
-        <v>1.038830435751102</v>
+        <v>0.9324209444006939</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05104592342583892</v>
+        <v>0.4236693494872384</v>
       </c>
       <c r="N3" t="n">
-        <v>141.9626234553999</v>
+        <v>37.49771294339038</v>
       </c>
       <c r="O3" t="n">
-        <v>283.2977959986163</v>
+        <v>74.4622965316162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_7</t>
+          <t>model_1_18_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999368488163148</v>
+        <v>0.9503694970537605</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8252630383322807</v>
+        <v>0.7471989053029556</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8161199577835949</v>
+        <v>0.7634550233063543</v>
       </c>
       <c r="E4" t="n">
-        <v>0.997133574389259</v>
+        <v>0.9062437943440049</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002628684880261911</v>
+        <v>0.1739802532613715</v>
       </c>
       <c r="G4" t="n">
-        <v>1.168466867261766</v>
+        <v>1.690482084281143</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6577282490306345</v>
+        <v>0.846107665967369</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006933010707121944</v>
+        <v>0.1837214515247018</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1293804615261334</v>
+        <v>1.33147157966267</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05127070196771164</v>
+        <v>0.4171094020294573</v>
       </c>
       <c r="L4" t="n">
-        <v>1.040416757558525</v>
+        <v>0.9324180385412909</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05207816427180416</v>
+        <v>0.4236784581549899</v>
       </c>
       <c r="N4" t="n">
-        <v>141.8825432067694</v>
+        <v>37.49762694642271</v>
       </c>
       <c r="O4" t="n">
-        <v>283.2177157499858</v>
+        <v>74.46221053464853</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_6</t>
+          <t>model_1_18_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9993332238347072</v>
+        <v>0.9503565752895857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.825035523414507</v>
+        <v>0.747080653080745</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8160917087595909</v>
+        <v>0.7634015199442641</v>
       </c>
       <c r="E5" t="n">
-        <v>0.997033310701844</v>
+        <v>0.9071772824362624</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002775473588842765</v>
+        <v>0.1740255506424224</v>
       </c>
       <c r="G5" t="n">
-        <v>1.169988260564527</v>
+        <v>1.691272837435566</v>
       </c>
       <c r="H5" t="n">
-        <v>0.657829294151524</v>
+        <v>0.8462990443912625</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00717551803603321</v>
+        <v>0.1818922202104585</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1301673534878186</v>
+        <v>1.327525344789888</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05268276367886146</v>
+        <v>0.4171636976564744</v>
       </c>
       <c r="L5" t="n">
-        <v>1.042673674578737</v>
+        <v>0.932400442947521</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05351246454336073</v>
+        <v>0.4237336088838569</v>
       </c>
       <c r="N5" t="n">
-        <v>141.7738677673978</v>
+        <v>37.49710629555082</v>
       </c>
       <c r="O5" t="n">
-        <v>283.1090403106142</v>
+        <v>74.46168988377664</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_5</t>
+          <t>model_1_18_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9993066795844849</v>
+        <v>0.9499801357739149</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8241774643986455</v>
+        <v>0.7470360399384344</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8156480921861715</v>
+        <v>0.7651499941919134</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9969181642380084</v>
+        <v>0.8916417492160282</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002885964739040615</v>
+        <v>0.175345163348039</v>
       </c>
       <c r="G6" t="n">
-        <v>1.175726105154592</v>
+        <v>1.691571165723623</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6594160849122783</v>
+        <v>0.8400448533897829</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007454022269203444</v>
+        <v>0.2123351193600269</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1277433949092038</v>
+        <v>1.384668933104575</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05372117589033783</v>
+        <v>0.4187423591518286</v>
       </c>
       <c r="L6" t="n">
-        <v>1.044372506592964</v>
+        <v>0.9318878444580969</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05456723070913648</v>
+        <v>0.4253371327196803</v>
       </c>
       <c r="N6" t="n">
-        <v>141.6957920732795</v>
+        <v>37.48199777124375</v>
       </c>
       <c r="O6" t="n">
-        <v>283.0309646164959</v>
+        <v>74.44658135946958</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_4</t>
+          <t>model_1_18_9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9993028532314423</v>
+        <v>0.949680928276739</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8240563159212692</v>
+        <v>0.7470261526461726</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8157590517153321</v>
+        <v>0.7657211588138972</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9968980023771472</v>
+        <v>0.8860044094983499</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002901892035732073</v>
+        <v>0.1763940383955627</v>
       </c>
       <c r="G7" t="n">
-        <v>1.176536225580645</v>
+        <v>1.691637282092504</v>
       </c>
       <c r="H7" t="n">
-        <v>0.659019189110274</v>
+        <v>0.8380018306549744</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007502787671208776</v>
+        <v>0.2233818573164439</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1258822987120983</v>
+        <v>1.402244291972572</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05386921231772442</v>
+        <v>0.4199929027918957</v>
       </c>
       <c r="L7" t="n">
-        <v>1.044617393187693</v>
+        <v>0.9314804129725808</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05471759856227227</v>
+        <v>0.4266073711719934</v>
       </c>
       <c r="N7" t="n">
-        <v>141.6847846572252</v>
+        <v>37.47006986384812</v>
       </c>
       <c r="O7" t="n">
-        <v>283.0199572004416</v>
+        <v>74.43465345207395</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_3</t>
+          <t>model_1_18_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9992411052432132</v>
+        <v>0.9503372605741764</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8231698445278971</v>
+        <v>0.7470154143785273</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8156555756801833</v>
+        <v>0.763091277294228</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9967754595546026</v>
+        <v>0.9095938850247774</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003158919685211422</v>
+        <v>0.1740932585816755</v>
       </c>
       <c r="G8" t="n">
-        <v>1.18246406386995</v>
+        <v>1.691709088937693</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6593893168881162</v>
+        <v>0.8474087643615391</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007799181443856925</v>
+        <v>0.1771567284932558</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1224663681821922</v>
+        <v>1.317230289578432</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05620426749999881</v>
+        <v>0.4172448424866095</v>
       </c>
       <c r="L8" t="n">
-        <v>1.048569264434356</v>
+        <v>0.932374142058453</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05708942852946865</v>
+        <v>0.4238160316639515</v>
       </c>
       <c r="N8" t="n">
-        <v>141.5150503632067</v>
+        <v>37.49632830897482</v>
       </c>
       <c r="O8" t="n">
-        <v>282.8502229064231</v>
+        <v>74.46091189720065</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_2</t>
+          <t>model_1_18_0</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9991170450973739</v>
+        <v>0.9503228999287433</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8230366008322783</v>
+        <v>0.7469868498135366</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8156755796539641</v>
+        <v>0.7629531211912759</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9961131300186821</v>
+        <v>0.9105943640867651</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003675323354280688</v>
+        <v>0.1741435999762037</v>
       </c>
       <c r="G9" t="n">
-        <v>1.183355065076084</v>
+        <v>1.691900100315314</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6593177638337995</v>
+        <v>0.8479029407310477</v>
       </c>
       <c r="I9" t="n">
-        <v>0.009401154907592694</v>
+        <v>0.1751962239676901</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1341464279329492</v>
+        <v>1.31288295682229</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06062444518740512</v>
+        <v>0.4173051640900262</v>
       </c>
       <c r="L9" t="n">
-        <v>1.056509113768072</v>
+        <v>0.9323545871370121</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06157921959689498</v>
+        <v>0.4238773032723225</v>
       </c>
       <c r="N9" t="n">
-        <v>141.2122283252573</v>
+        <v>37.49575006582059</v>
       </c>
       <c r="O9" t="n">
-        <v>282.5474008684737</v>
+        <v>74.46033365404641</v>
       </c>
     </row>
     <row r="10">
@@ -904,95 +904,95 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9991076992746495</v>
+        <v>0.9503213975269538</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8211739841242941</v>
+        <v>0.7469195681002705</v>
       </c>
       <c r="D10" t="n">
-        <v>0.81646762764943</v>
+        <v>0.7630747093312228</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9961165743907878</v>
+        <v>0.9100796728439002</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003714225590874642</v>
+        <v>0.1741488666615751</v>
       </c>
       <c r="G10" t="n">
-        <v>1.195810391578935</v>
+        <v>1.692350013441728</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6564846540795992</v>
+        <v>0.8474680270045432</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009392824020302729</v>
+        <v>0.1762047953104035</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1095201458711136</v>
+        <v>1.315080289911629</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06094444675993574</v>
+        <v>0.4173114743948159</v>
       </c>
       <c r="L10" t="n">
-        <v>1.057107246422433</v>
+        <v>0.9323525413132987</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06190426087430874</v>
+        <v>0.4238837129581047</v>
       </c>
       <c r="N10" t="n">
-        <v>141.1911701544384</v>
+        <v>37.49568958004066</v>
       </c>
       <c r="O10" t="n">
-        <v>282.5263426976548</v>
+        <v>74.46027316826648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_0</t>
+          <t>model_1_18_7</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9990180569400522</v>
+        <v>0.9500534441015728</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8203248593297205</v>
+        <v>0.7466472483564054</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8159414149536978</v>
+        <v>0.7650363671153193</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9958001905604597</v>
+        <v>0.8946094482147198</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00408736420180237</v>
+        <v>0.1750881802296954</v>
       </c>
       <c r="G11" t="n">
-        <v>1.201488492990108</v>
+        <v>1.694171016822871</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6583668863806684</v>
+        <v>0.8404512908542836</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01015806016493041</v>
+        <v>0.2065197179803195</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1102349185072835</v>
+        <v>1.375314148656639</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06393249722795419</v>
+        <v>0.4184353955268308</v>
       </c>
       <c r="L11" t="n">
-        <v>1.06284435583666</v>
+        <v>0.9319876685638437</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06493937015024384</v>
+        <v>0.4250253347244399</v>
       </c>
       <c r="N11" t="n">
-        <v>140.9997099322226</v>
+        <v>37.48493108988046</v>
       </c>
       <c r="O11" t="n">
-        <v>282.334882475439</v>
+        <v>74.44951467810628</v>
       </c>
     </row>
   </sheetData>
